--- a/Excel_101_Workshop_v3.xlsx
+++ b/Excel_101_Workshop_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1508" yWindow="82" windowWidth="15487" windowHeight="8002" activeTab="5"/>
+    <workbookView xWindow="2771" yWindow="82" windowWidth="15487" windowHeight="8002" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="44" r:id="rId1"/>
@@ -29,10 +29,21 @@
     <sheet name="Pivot" sheetId="31" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Filter + Sort'!$B$3:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Filter + Sort'!$F$3:$F$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formatting!$B$3:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Text to Columns'!$B$3:$H$35</definedName>
-    <definedName name="conta1">Basics!$N$4:$N$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Charts 2'!$A$3:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Charts 2'!$B$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Charts 2'!$F$3:$F$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Charts 2'!$B$3:$B$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Charts 2'!$C$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Charts 2'!$C$3:$C$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Charts 2'!$D$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Charts 2'!$D$3:$D$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Charts 2'!$E$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Charts 2'!$E$3:$E$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Charts 2'!$F$2</definedName>
+    <definedName name="conta1">Basics!$N$5:$N$6</definedName>
     <definedName name="Z_3C59D497_6DBB_49FA_B8A6_8C2D6DBECC37_.wvu.FilterData" localSheetId="4" hidden="1">'Filter + Sort'!$B$3:$H$35</definedName>
     <definedName name="Z_3C59D497_6DBB_49FA_B8A6_8C2D6DBECC37_.wvu.FilterData" localSheetId="3" hidden="1">Formatting!$B$3:$H$35</definedName>
     <definedName name="Z_3C59D497_6DBB_49FA_B8A6_8C2D6DBECC37_.wvu.FilterData" localSheetId="11" hidden="1">'Text to Columns'!$B$3:$H$35</definedName>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="362">
   <si>
     <t>Nancy</t>
   </si>
@@ -978,9 +989,6 @@
     <t>Remove duplicate entries</t>
   </si>
   <si>
-    <t>Add trend line</t>
-  </si>
-  <si>
     <t>Show the exponential data as linear</t>
   </si>
   <si>
@@ -999,9 +1007,6 @@
     <t>Remove Unwanted Format</t>
   </si>
   <si>
-    <t>Remove Legends</t>
-  </si>
-  <si>
     <t>Separate Slice</t>
   </si>
   <si>
@@ -1020,9 +1025,6 @@
     <t>Change the Chart Type to Combo Type</t>
   </si>
   <si>
-    <t>Configure the columns to display the proper type</t>
-  </si>
-  <si>
     <t>Enter the date</t>
   </si>
   <si>
@@ -1110,19 +1112,40 @@
     <t>Create Scatter plot</t>
   </si>
   <si>
-    <t>Add Axis titles</t>
-  </si>
-  <si>
-    <t>Add title</t>
-  </si>
-  <si>
-    <t>Make Axis logged</t>
-  </si>
-  <si>
     <t>Calculate Remainder</t>
   </si>
   <si>
     <t>Calculate Payment</t>
+  </si>
+  <si>
+    <t>Correct the chart type for week 4</t>
+  </si>
+  <si>
+    <t>Add Axes titles</t>
+  </si>
+  <si>
+    <t>Remove Legend</t>
+  </si>
+  <si>
+    <t>Does this remind you of something?</t>
+  </si>
+  <si>
+    <t>Center the plot data</t>
+  </si>
+  <si>
+    <t>Add Trend line</t>
+  </si>
+  <si>
+    <t>Amend the Title</t>
+  </si>
+  <si>
+    <t>Reposition the data</t>
+  </si>
+  <si>
+    <t>Use Log scale</t>
+  </si>
+  <si>
+    <t>Calculate Totals</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1159,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,6 +1318,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1444,7 +1494,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1502,26 +1552,13 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1537,11 +1574,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,17 +1602,7 @@
     <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1592,6 +1615,36 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Currency" xfId="6" builtinId="4"/>
@@ -1650,7 +1703,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="0" cy="295275"/>
@@ -2280,7 +2333,7 @@
   <dimension ref="F2:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H5" sqref="H5:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2291,24 +2344,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:14" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="F2" s="51"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="6:14" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="N3" s="67" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="56" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="N4" s="66" t="s">
-        <v>352</v>
+      <c r="N4" s="55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="6:14" x14ac:dyDescent="0.25">
@@ -2318,8 +2371,8 @@
       <c r="I5" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="66" t="s">
-        <v>310</v>
+      <c r="N5" s="55" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="6:14" x14ac:dyDescent="0.25">
@@ -2360,6 +2413,9 @@
       </c>
       <c r="I10">
         <v>795.01</v>
+      </c>
+      <c r="N10" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="6:14" x14ac:dyDescent="0.25">
@@ -2628,7 +2684,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
@@ -3158,13 +3214,13 @@
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="56" t="s">
         <v>293</v>
       </c>
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -3187,8 +3243,8 @@
       </c>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="M2" s="66" t="s">
-        <v>311</v>
+      <c r="M2" s="55" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3213,8 +3269,8 @@
       <c r="G3" s="22"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="M3" s="66" t="s">
-        <v>325</v>
+      <c r="M3" s="55" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3239,7 +3295,7 @@
       <c r="G4" s="22"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="55" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3265,9 +3321,7 @@
       <c r="G5" s="22"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="M5" s="68" t="s">
-        <v>356</v>
-      </c>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3291,9 +3345,7 @@
       <c r="G6" s="22"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="M6" s="68" t="s">
-        <v>357</v>
-      </c>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -3317,9 +3369,6 @@
       <c r="G7" s="22"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="M7" s="66" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -3343,9 +3392,7 @@
       <c r="G8" s="22"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="M8" s="66" t="s">
-        <v>314</v>
-      </c>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -3419,12 +3466,12 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A31" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="14.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
@@ -3968,7 +4015,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="56" t="s">
         <v>293</v>
       </c>
       <c r="J2" s="9"/>
@@ -3988,7 +4035,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="H3"/>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="55" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4002,8 +4049,8 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="H4"/>
-      <c r="I4" s="66" t="s">
-        <v>315</v>
+      <c r="I4" s="55" t="s">
+        <v>314</v>
       </c>
       <c r="L4" s="5"/>
     </row>
@@ -4851,7 +4898,7 @@
   <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4862,29 +4909,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>289</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="55" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4897,8 +4944,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>222</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4911,8 +4958,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>333</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4925,8 +4972,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>444</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -4939,8 +4986,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>444</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -4953,8 +5000,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>444</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4967,8 +5014,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>555</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4981,8 +5028,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
         <v>555</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4995,8 +5042,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
         <v>666</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5009,8 +5056,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>666</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5023,8 +5070,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>666</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5037,8 +5084,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
         <v>777</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -5051,8 +5098,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
         <v>888</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5065,8 +5112,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
         <v>888</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -5079,8 +5126,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>999</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -5093,8 +5140,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
         <v>999</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -5107,8 +5154,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
         <v>999</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -5121,7 +5168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
         <v>132</v>
       </c>
@@ -5132,7 +5179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>130</v>
       </c>
@@ -5143,7 +5190,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>127</v>
       </c>
@@ -5154,7 +5201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>121</v>
       </c>
@@ -5165,7 +5212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>121</v>
       </c>
@@ -5176,7 +5223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>118</v>
       </c>
@@ -5187,7 +5234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>114</v>
       </c>
@@ -5198,7 +5245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>111</v>
       </c>
@@ -5209,7 +5256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
         <v>96</v>
       </c>
@@ -5220,7 +5267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>103</v>
       </c>
@@ -5231,7 +5278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
         <v>96</v>
       </c>
@@ -5242,7 +5289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>96</v>
       </c>
@@ -5253,7 +5300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
         <v>92</v>
       </c>
@@ -5264,7 +5311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
         <v>87</v>
       </c>
@@ -5275,7 +5322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>82</v>
       </c>
@@ -5295,8 +5342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
@@ -5832,13 +5879,13 @@
         <v>165</v>
       </c>
       <c r="M1" s="14"/>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="56" t="s">
         <v>293</v>
       </c>
       <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5868,8 +5915,8 @@
       <c r="L2" s="19">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="N2" s="66" t="s">
-        <v>311</v>
+      <c r="N2" s="57" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5899,8 +5946,8 @@
       <c r="L3" s="19">
         <v>6.2E-2</v>
       </c>
-      <c r="N3" s="66" t="s">
-        <v>324</v>
+      <c r="N3" s="55" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5930,8 +5977,8 @@
       <c r="L4" s="19">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="N4" s="66" t="s">
-        <v>325</v>
+      <c r="N4" s="55" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5961,8 +6008,8 @@
       <c r="L5" s="19">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="N5" s="66" t="s">
-        <v>312</v>
+      <c r="N5" s="55" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5992,8 +6039,8 @@
       <c r="L6" s="19">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N6" s="66" t="s">
-        <v>356</v>
+      <c r="N6" s="55" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -6023,8 +6070,8 @@
       <c r="L7" s="19">
         <v>4.7E-2</v>
       </c>
-      <c r="N7" s="66" t="s">
-        <v>357</v>
+      <c r="N7" s="55" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6054,8 +6101,8 @@
       <c r="L8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="N8" s="66" t="s">
-        <v>313</v>
+      <c r="N8" s="55" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -6075,8 +6122,8 @@
       <c r="L9" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N9" s="66" t="s">
-        <v>314</v>
+      <c r="N9" s="55" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6084,7 +6131,7 @@
         <v>184</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="57"/>
+      <c r="C10" s="50"/>
       <c r="E10" s="13"/>
       <c r="F10" s="20" t="s">
         <v>179</v>
@@ -6103,14 +6150,14 @@
         <v>178</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="58"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="28"/>
       <c r="E11" s="13"/>
       <c r="F11" s="20" t="s">
         <v>181</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="49"/>
       <c r="K11" s="18">
         <v>10</v>
       </c>
@@ -6194,7 +6241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6708,408 +6757,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="68" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="67">
         <v>2711</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="67">
         <v>2309</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="67">
         <v>16092</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="67">
         <v>24514</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="67">
         <v>17771</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="67">
         <v>13295</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="67">
         <v>14046</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="67">
         <v>18046</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="67">
         <v>4527</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="67">
         <v>11186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="67">
         <v>8790</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="67">
         <v>6516</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="67">
         <v>3809</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="67">
         <v>3293</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="67">
         <v>6891</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="67">
         <v>1131</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="67">
         <v>7315</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="67">
         <v>2222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="67">
         <v>2612</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="67">
         <v>3140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="67">
         <v>8009</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="67">
         <v>4257</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="67">
         <v>6205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="67">
         <v>25193</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="67">
         <v>3045</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="67">
         <v>15050</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="67">
         <v>10200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="67">
         <v>3456</v>
       </c>
     </row>
@@ -7124,232 +7173,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
       <c r="B4" s="66" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+        <v>326</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
       <c r="D7" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+        <v>343</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
       <c r="D8" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+        <v>327</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
       <c r="D9" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+        <v>328</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+        <v>330</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+        <v>331</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+        <v>332</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+        <v>334</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
       <c r="D15" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+        <v>335</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
       <c r="D16" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+        <v>336</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A19" s="55"/>
       <c r="B19" s="66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A20" s="55"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7359,17 +7408,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.375" style="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="30" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="12" width="11.125" customWidth="1"/>
@@ -7380,593 +7429,583 @@
     <col min="17" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="2" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D2" s="55">
         <v>5818.2788285236866</v>
       </c>
-      <c r="E1" s="60">
+      <c r="E2" s="55">
         <v>9979.5984911494179</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F2" s="55">
         <v>7769.5833564098257</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G2" s="55">
         <v>1651.3777548331277</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H2" s="55">
         <v>8615.3865826464316</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I2" s="55">
         <v>480.01505705542513</v>
       </c>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D3" s="55">
         <v>7567.7581774233186</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E3" s="55">
         <v>1957.2670002606696</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F3" s="55">
         <v>2159.7801706264572</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G3" s="55">
         <v>3576.6810753443588</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H3" s="55">
         <v>7516.4210454735094</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I3" s="55">
         <v>7742.6809638040513</v>
       </c>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D4" s="55">
         <v>9635.0816353951977</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E4" s="55">
         <v>3647.8997884650453</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="55">
         <v>928.88745622826673</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G4" s="55">
         <v>3947.6504635711331</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H4" s="55">
         <v>65.734854416934496</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I4" s="55">
         <v>1018.1209078492825</v>
       </c>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="55">
         <v>5427.1101769331408</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="55">
         <v>5616.4812859361564</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F5" s="55">
         <v>3817.2736605807622</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G5" s="55">
         <v>2908.4004736063653</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H5" s="55">
         <v>8681.5099778933491</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I5" s="55">
         <v>3432.4289938139786</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4071.5959884610097</v>
-      </c>
-      <c r="E5" s="12">
-        <v>7600.1408394934097</v>
-      </c>
-      <c r="F5" s="12">
-        <v>9010.5699059942872</v>
-      </c>
-      <c r="G5" s="12">
-        <v>4083.3343913833064</v>
-      </c>
-      <c r="H5" s="12">
-        <v>808.93908900693918</v>
-      </c>
-      <c r="I5" s="12">
-        <v>606.46487139519149</v>
-      </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="52"/>
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:14" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="55">
+        <v>4071.5959884610097</v>
+      </c>
+      <c r="E6" s="55">
+        <v>7600.1408394934097</v>
+      </c>
+      <c r="F6" s="55">
+        <v>9010.5699059942872</v>
+      </c>
+      <c r="G6" s="55">
+        <v>4083.3343913833064</v>
+      </c>
+      <c r="H6" s="55">
+        <v>808.93908900693918</v>
+      </c>
+      <c r="I6" s="55">
+        <v>606.46487139519149</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="55">
         <v>5629.6537083613839</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="55">
         <v>6994.8778717722162</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="55">
         <v>6488.8189250337127</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="55">
         <v>7702.7410568412242</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H7" s="55">
         <v>8979.0569116312654</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="55">
         <v>7074.9045249063065</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="M6"/>
-      <c r="N6" s="67" t="s">
+      <c r="J7" s="52"/>
+      <c r="M7"/>
+      <c r="N7" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="55">
         <v>790.20874490685071</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="55">
         <v>6355.7835934336463</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="55">
         <v>8116.1341079490603</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="55">
         <v>1761.7728695183232</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H8" s="55">
         <v>1185.0849967927002</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="55">
         <v>7176.4042067786804</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="N7" s="66" t="s">
+      <c r="J8" s="52"/>
+      <c r="N8" s="55" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    <row r="9" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="55">
         <v>4116.2787204246242</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="55">
         <v>6800.9902013954097</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="55">
         <v>2069.6505224877646</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="55">
         <v>3313.9788701398488</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="55">
         <v>2005.2392208158221</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="55">
         <v>6181.4804585658312</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="N8" s="66" t="s">
+      <c r="J9" s="52"/>
+      <c r="N9" s="55" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+    <row r="10" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="55">
         <v>1072.5847231083828</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="55">
         <v>6042.9264830056109</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="55">
         <v>4384.7319219050896</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="55">
         <v>7698.7527408386832</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H10" s="55">
         <v>5818.8290953576607</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I10" s="55">
         <v>3556.596864089976</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="N9" s="66" t="s">
+      <c r="J10" s="52"/>
+      <c r="N10" s="55" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="55">
         <v>6650.2481125317399</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="55">
         <v>1041.1792511079732</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="55">
         <v>9997.4104119599342</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="55">
         <v>362.59688994691783</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="55">
         <v>8770.4578982592557</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="55">
         <v>3636.8215918991709</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="N10" s="66" t="s">
+      <c r="J11" s="52"/>
+      <c r="N11" s="55" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="12" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B12" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="55">
         <v>6462.291944080931</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="55">
         <v>8772.9891377296899</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="55">
         <v>2059.8446413291449</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="55">
         <v>1885.4848116651813</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="55">
         <v>3408.7720260218957</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="55">
         <v>6914.8496545536455</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="N11" s="66" t="s">
+      <c r="J12" s="52"/>
+      <c r="N12" s="55" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="55">
         <v>8667.6324497337391</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="55">
         <v>7752.7495327779052</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="55">
         <v>7093.2199583500214</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="55">
         <v>5739.7081734011217</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="55">
         <v>9598.0857734205674</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="55">
         <v>826.49328736352118</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="N12" s="66" t="s">
+      <c r="J13" s="52"/>
+      <c r="N13" s="55" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="55">
         <v>3642.8209689570012</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="55">
         <v>3645.8517922857591</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="55">
         <v>19.230344259035803</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="55">
         <v>8686.9067201811849</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="55">
         <v>7069.2470094121782</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I14" s="55">
         <v>2237.3586975973403</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="N13" s="72" t="s">
+      <c r="J14" s="52"/>
+      <c r="N14" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B15" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="55">
         <v>6073.0374474972296</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="55">
         <v>6960.1568224136499</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="55">
         <v>7471.1907254751168</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="55">
         <v>6970.3886024091144</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="55">
         <v>9970.1942882254898</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="55">
         <v>3315.9884433953744</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="N14" s="72" t="s">
+      <c r="J15" s="52"/>
+      <c r="N15" s="61" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="55">
         <v>7742.9341506310575</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="55">
         <v>4433.0056641160809</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="55">
         <v>1497.0093570086208</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="55">
         <v>8167.1408637927298</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="55">
         <v>6635.4325087833831</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="55">
         <v>8191.0083883926891</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="N15" s="72" t="s">
+      <c r="J16" s="52"/>
+      <c r="N16" s="61" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B17" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="55">
         <v>6010.0046455449792</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="55">
         <v>8815.5725729235983</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="55">
         <v>7361.2595394897089</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="55">
         <v>9818.0678515697291</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="55">
         <v>1331.7474837224452</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="55">
         <v>9565.0039668526515</v>
       </c>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="55">
         <v>3414.6175860333196</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="55">
         <v>1359.229858094244</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="55">
         <v>4528.6819791748467</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="55">
         <v>2599.2175535179672</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H18" s="55">
         <v>2792.5130229925021</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="55">
         <v>625.80713668312967</v>
       </c>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="2:14" ht="15.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.65" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="55">
         <v>5740.8082738956255</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="55">
         <v>843.19462855429356</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="55">
         <v>7265.4132312308129</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="55">
         <v>3670.2498407983076</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H19" s="55">
         <v>2842.0865909922586</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="55">
         <v>5543.1684953847334</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="N18" s="54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="J19" s="52"/>
+      <c r="N19" s="47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B20" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="55">
         <v>2586.7832284435722</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="55">
         <v>2149.5227474636567</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="55">
         <v>6112.0417869614594</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="55">
         <v>560.57537517983258</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="55">
         <v>2083.8004138760134</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="55">
         <v>3686.2073977694545</v>
       </c>
-      <c r="J19" s="59"/>
-    </row>
-    <row r="20" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="B21" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="55">
         <v>3916.0383187368006</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="55">
         <v>9187.6578608319633</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="55">
         <v>9855.3933416979598</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="55">
         <v>2386.4790943480862</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="55">
         <v>8790.9678686552706</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="55">
         <v>7403.5988249834218</v>
       </c>
-      <c r="J20" s="59"/>
-    </row>
-    <row r="24" spans="2:14" ht="14.95" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="25" spans="2:14" ht="14.95" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -7988,18 +8027,28 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>187</v>
-      </c>
+    <row r="27" spans="2:14" ht="14.95" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="31" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.8" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8016,7 +8065,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8591,7 +8640,7 @@
       <c r="H3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="56" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8617,7 +8666,7 @@
       <c r="H4" s="4">
         <v>18700</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="55" t="s">
         <v>294</v>
       </c>
       <c r="L4" s="5"/>
@@ -8644,12 +8693,12 @@
       <c r="H5" s="4">
         <v>9000</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="55" t="s">
         <v>295</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
@@ -8673,7 +8722,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
@@ -8697,7 +8746,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>61</v>
       </c>
@@ -8721,7 +8770,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>62</v>
       </c>
@@ -8745,7 +8794,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
@@ -8769,7 +8818,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
@@ -8793,7 +8842,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>65</v>
       </c>
@@ -8817,7 +8866,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
@@ -8841,7 +8890,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
@@ -8865,7 +8914,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>68</v>
       </c>
@@ -8889,7 +8938,7 @@
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>69</v>
       </c>
@@ -8913,7 +8962,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
@@ -8937,7 +8986,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
@@ -8961,7 +9010,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
@@ -8985,7 +9034,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
@@ -9009,7 +9058,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
@@ -9033,7 +9082,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
@@ -9057,7 +9106,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
@@ -9081,7 +9130,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
@@ -9105,7 +9154,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>122</v>
       </c>
@@ -9129,7 +9178,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>119</v>
       </c>
@@ -9153,7 +9202,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>115</v>
       </c>
@@ -9177,7 +9226,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>112</v>
       </c>
@@ -9201,7 +9250,7 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>108</v>
       </c>
@@ -9225,7 +9274,7 @@
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>104</v>
       </c>
@@ -9249,7 +9298,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>99</v>
       </c>
@@ -9273,7 +9322,7 @@
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>97</v>
       </c>
@@ -9297,7 +9346,7 @@
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
@@ -9321,7 +9370,7 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
@@ -9345,7 +9394,7 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>83</v>
       </c>
@@ -9369,7 +9418,7 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -9379,7 +9428,7 @@
       <c r="H36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -9389,7 +9438,7 @@
       <c r="H37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -9399,7 +9448,7 @@
       <c r="H38" s="4"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -9409,7 +9458,7 @@
       <c r="H39" s="4"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -9419,7 +9468,7 @@
       <c r="H40" s="4"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -9429,7 +9478,7 @@
       <c r="H41" s="4"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -9439,7 +9488,7 @@
       <c r="H42" s="4"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -9449,7 +9498,7 @@
       <c r="H43" s="4"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -9459,7 +9508,7 @@
       <c r="H44" s="4"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -9469,7 +9518,7 @@
       <c r="H45" s="4"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -9479,7 +9528,7 @@
       <c r="H46" s="4"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -9489,7 +9538,7 @@
       <c r="H47" s="4"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -9499,7 +9548,7 @@
       <c r="H48" s="4"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -9821,7 +9870,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -10396,208 +10445,208 @@
       <c r="H3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="59" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F4" s="5">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4">
-        <v>18700</v>
-      </c>
-      <c r="K4" s="69" t="s">
-        <v>348</v>
+        <v>2000</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>345</v>
       </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F5" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="H5" s="4">
-        <v>9000</v>
-      </c>
-      <c r="K5" s="69" t="s">
-        <v>349</v>
+        <v>1650</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>346</v>
       </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="4">
-        <v>9500</v>
-      </c>
-      <c r="K6" s="69" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K6" s="58" t="s">
         <v>296</v>
       </c>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="69" t="s">
+        <v>7500</v>
+      </c>
+      <c r="K7" s="58" t="s">
         <v>297</v>
       </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="H8" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H9" s="4">
-        <v>12000</v>
+        <v>7400</v>
       </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F10" s="5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H10" s="4">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F11" s="5">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="H11" s="4">
         <v>15000</v>
@@ -10606,37 +10655,37 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F12" s="5">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>105</v>
       </c>
       <c r="H12" s="4">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>90</v>
@@ -10645,85 +10694,85 @@
         <v>2010</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H13" s="4">
-        <v>4700</v>
+        <v>5300</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F14" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="H14" s="4">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F15" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="4">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H16" s="4">
-        <v>6700</v>
+        <v>20000</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="5"/>
@@ -10755,38 +10804,38 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H18" s="4">
-        <v>17500</v>
+        <v>4900</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>106</v>
@@ -10795,142 +10844,142 @@
         <v>2011</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H19" s="4">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F20" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H20" s="4">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H21" s="4">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F22" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H22" s="4">
-        <v>1650</v>
+        <v>13000</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F23" s="5">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="H23" s="4">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F24" s="5">
         <v>2013</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="H24" s="4">
-        <v>10400</v>
+        <v>6400</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>121</v>
@@ -10939,129 +10988,129 @@
         <v>120</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H25" s="4">
-        <v>7500</v>
+        <v>10400</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F26" s="5">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="H26" s="4">
-        <v>4900</v>
+        <v>16700</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F27" s="5">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H27" s="4">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H28" s="4">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="F29" s="5">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H29" s="4">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>101</v>
@@ -11070,135 +11119,135 @@
         <v>2014</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="H30" s="4">
-        <v>5400</v>
+        <v>17500</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F31" s="5">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H31" s="4">
-        <v>16700</v>
+        <v>8000</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H32" s="4">
-        <v>7400</v>
+        <v>12000</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="5">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H33" s="4">
-        <v>5300</v>
+        <v>15000</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F34" s="5">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H34" s="4">
-        <v>6400</v>
+        <v>9500</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="2:12" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F35" s="5">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="H35" s="4">
-        <v>15000</v>
+        <v>18700</v>
       </c>
       <c r="K35"/>
       <c r="L35" s="5"/>
@@ -11654,7 +11703,8 @@
     </row>
   </sheetData>
   <sortState ref="B4:H35">
-    <sortCondition ref="B9"/>
+    <sortCondition ref="F4:F35"/>
+    <sortCondition ref="H4:H35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11666,452 +11716,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.75" style="41"/>
-    <col min="3" max="3" width="14.125" style="34" customWidth="1"/>
-    <col min="4" max="6" width="10.75" style="34"/>
-    <col min="7" max="7" width="14.75" style="34" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="34" customWidth="1"/>
-    <col min="10" max="11" width="10.75" style="34"/>
-    <col min="12" max="12" width="50.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="34"/>
+    <col min="1" max="2" width="10.75" style="36"/>
+    <col min="3" max="3" width="14.125" style="31" customWidth="1"/>
+    <col min="4" max="6" width="10.75" style="31"/>
+    <col min="7" max="7" width="14.75" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="31" customWidth="1"/>
+    <col min="10" max="11" width="10.75" style="31"/>
+    <col min="12" max="12" width="50.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="63" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="L2" s="70" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="L2" s="59" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="L3" s="71" t="s">
-        <v>318</v>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="L3" s="60" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="L4" s="71" t="s">
-        <v>327</v>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="L4" s="60" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="L5" s="71" t="s">
-        <v>316</v>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="L5" s="65" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="L6" s="71" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="L6" s="60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" s="60" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="71" t="s">
-        <v>319</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F8" s="35"/>
-      <c r="L8" s="71" t="s">
-        <v>350</v>
+      <c r="F8" s="32"/>
+      <c r="L8" s="60" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.3" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="38" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32" t="s">
+    <row r="11" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="75">
         <v>238</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="70">
         <v>43191</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="71">
         <v>60</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="72">
         <v>224.352</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32" t="s">
+    <row r="12" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="75">
         <v>321</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="70">
         <v>43192</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="71">
         <v>40</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="72">
         <v>124.47600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32" t="s">
+    <row r="13" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="75">
         <v>474</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="70">
         <v>43193</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="71">
         <v>115</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="72">
         <v>301.10399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="32" t="s">
+    <row r="14" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="75">
         <v>255</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="70">
         <v>43194</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="71">
         <v>80</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="72">
         <v>268.63199999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="32" t="s">
+    <row r="15" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="75">
         <v>387</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="70">
         <v>43195</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="71">
         <v>40</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="72">
         <v>134.31599999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="G16" s="44">
+    <row r="16" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="G16" s="70">
         <v>43196</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="71">
         <v>60</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="72">
         <v>354.97799999999995</v>
       </c>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="D17" s="45"/>
-      <c r="G17" s="44">
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="D17" s="39"/>
+      <c r="G17" s="70">
         <v>43197</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="71">
         <v>125</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="72">
         <v>428.96249999999998</v>
       </c>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="G18" s="44">
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="G18" s="70">
         <v>43198</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="71">
         <v>55</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="72">
         <v>325.39649999999995</v>
       </c>
-      <c r="N18" s="37"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="G19" s="44">
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="G19" s="70">
         <v>43199</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="71">
         <v>190</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="72">
         <v>668.38200000000006</v>
       </c>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="G20" s="44">
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="G20" s="70">
         <v>43200</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="71">
         <v>90</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="72">
         <v>375.27300000000002</v>
       </c>
-      <c r="N20" s="37"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="G21" s="44">
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="G21" s="70">
         <v>43201</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="71">
         <v>45</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="72">
         <v>161.62199999999993</v>
       </c>
-      <c r="N21" s="37"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="G22" s="44">
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="G22" s="70">
         <v>43202</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="71">
         <v>60</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="72">
         <v>192.72</v>
       </c>
-      <c r="N22" s="37"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="G23" s="44">
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="G23" s="70">
         <v>43203</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="71">
         <v>125</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="72">
         <v>424.875</v>
       </c>
-      <c r="N23" s="37"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="G24" s="44">
+      <c r="N23" s="33"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="G24" s="70">
         <v>43204</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="71">
         <v>160</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="72">
         <v>711.04</v>
       </c>
-      <c r="N24" s="37"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="G25" s="44">
+      <c r="N24" s="33"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="G25" s="70">
         <v>43205</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="71">
         <v>50</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="72">
         <v>174.35</v>
       </c>
-      <c r="N25" s="37"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="G26" s="44">
+      <c r="N25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="G26" s="70">
         <v>43206</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="71">
         <v>100</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="72">
         <v>262.89999999999998</v>
       </c>
-      <c r="N26" s="37"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="G27" s="44">
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="G27" s="70">
         <v>43207</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="71">
         <v>85</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="72">
         <v>223.465</v>
       </c>
-      <c r="N27" s="37"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="G28" s="44">
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="G28" s="70">
         <v>43208</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="71">
         <v>75</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="72">
         <v>274.72500000000002</v>
       </c>
-      <c r="N28" s="37"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="G29" s="44">
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="G29" s="70">
         <v>43209</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="71">
         <v>70</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="72">
         <v>256.41000000000003</v>
       </c>
-      <c r="N29" s="37"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="G30" s="44">
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="G30" s="70">
         <v>43210</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="71">
         <v>50</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="72">
         <v>189.2</v>
       </c>
-      <c r="N30" s="37"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M31" s="43"/>
-      <c r="N31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M32" s="43"/>
-      <c r="N32" s="37"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M33" s="43"/>
-      <c r="N33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="34" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M34" s="43"/>
-      <c r="N34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="33"/>
     </row>
     <row r="35" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M35" s="43"/>
-      <c r="N35" s="37"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="33"/>
     </row>
   </sheetData>
   <sortState ref="L16:N35">
@@ -12132,7 +12182,7 @@
   <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
@@ -12652,29 +12702,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>320</v>
+      <c r="F2" s="40" t="s">
+        <v>318</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="56" t="s">
         <v>293</v>
       </c>
       <c r="L2" s="11"/>
@@ -12683,22 +12733,22 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="42">
         <v>4.2</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="42">
         <v>3.7</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="42">
         <v>3.9</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="42">
         <v>3.8</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="48">
         <f>+AVERAGE(B3:E3)/5</f>
         <v>0.78</v>
       </c>
@@ -12706,8 +12756,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="66" t="s">
-        <v>321</v>
+      <c r="K3" s="55" t="s">
+        <v>319</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -12715,22 +12765,22 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="43">
         <v>4</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="43">
         <v>4</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="42">
         <v>4.3</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="48">
         <f t="shared" ref="F4:F9" si="0">+AVERAGE(B4:E4)/5</f>
         <v>0.82</v>
       </c>
@@ -12738,8 +12788,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="66" t="s">
-        <v>322</v>
+      <c r="K4" s="55" t="s">
+        <v>320</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -12747,22 +12797,22 @@
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="42">
         <v>3.9</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="42">
         <v>3.5</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="42">
         <v>3.7</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="48">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
@@ -12770,8 +12820,8 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="66" t="s">
-        <v>323</v>
+      <c r="K5" s="65" t="s">
+        <v>352</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -12779,22 +12829,22 @@
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="42">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="42">
         <v>4.7</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="48">
         <f t="shared" si="0"/>
         <v>0.8899999999999999</v>
       </c>
@@ -12802,8 +12852,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="66" t="s">
-        <v>351</v>
+      <c r="K6" s="55" t="s">
+        <v>348</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -12811,22 +12861,22 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="42">
         <v>3.3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="42">
         <v>3.6</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="42">
         <v>3.4</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>3.7</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -12834,29 +12884,29 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="42">
         <v>3.7</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="42">
         <v>3.7</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>4.7</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="48">
         <f t="shared" si="0"/>
         <v>0.80999999999999994</v>
       </c>
@@ -12864,29 +12914,29 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="54"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="42">
         <v>3.5</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="42">
         <v>3.7</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="43">
         <v>4</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
@@ -12899,6 +12949,9 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="65"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13"/>
@@ -12936,7 +12989,7 @@
   <dimension ref="D2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F6" sqref="F6:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12947,26 +13000,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:11" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="D2" s="51"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="4:11" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="K3" s="67" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="K3" s="56" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="66" t="s">
-        <v>352</v>
+      <c r="K4" s="55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="57" t="s">
         <v>353</v>
       </c>
     </row>
@@ -12977,106 +13030,109 @@
       <c r="G6" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="66" t="s">
-        <v>354</v>
+      <c r="K6" s="57" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="61">
+      <c r="F7" s="53">
         <v>14.2</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="45">
         <v>215</v>
       </c>
-      <c r="K7" s="66" t="s">
-        <v>309</v>
+      <c r="K7" s="57" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="61">
+      <c r="F8" s="53">
         <v>16.399999999999999</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="45">
         <v>325</v>
       </c>
+      <c r="K8" s="57" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="61">
+      <c r="F9" s="53">
         <v>11.9</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="45">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="61">
+      <c r="F10" s="53">
         <v>15.2</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="45">
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="61">
+      <c r="F11" s="53">
         <v>18.5</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="45">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="61">
+      <c r="F12" s="53">
         <v>22.1</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="45">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="61">
+      <c r="F13" s="53">
         <v>19.399999999999999</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="45">
         <v>412</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="61">
+      <c r="F14" s="53">
         <v>25.1</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="45">
         <v>614</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="61">
+      <c r="F15" s="53">
         <v>23.4</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="45">
         <v>544</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="61">
+      <c r="F16" s="53">
         <v>18.100000000000001</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="45">
         <v>421</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="61">
+      <c r="F17" s="53">
         <v>22.6</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="45">
         <v>445</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="61">
+      <c r="F18" s="53">
         <v>17.2</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="45">
         <v>408</v>
       </c>
     </row>
@@ -13098,38 +13154,38 @@
   <dimension ref="D2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F6" sqref="F6:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="24.25" customWidth="1"/>
+    <col min="13" max="13" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="D2" s="51"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="4:13" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="M3" s="67" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="M3" s="56" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M4" s="66" t="s">
-        <v>352</v>
+      <c r="M4" s="55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M5" s="66" t="s">
-        <v>355</v>
+      <c r="M5" s="57" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
@@ -13139,101 +13195,103 @@
       <c r="G6" t="s">
         <v>245</v>
       </c>
-      <c r="M6" s="54"/>
+      <c r="M6" s="57" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="45">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="45">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="45">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="45">
         <v>325</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="45">
         <v>408</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="45">
         <v>421</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="45">
         <v>406</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="45">
         <v>412</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="45">
         <v>522</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="45">
         <v>900</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="45">
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="45">
         <v>50000</v>
       </c>
     </row>
